--- a/MOM_04-10.xlsx
+++ b/MOM_04-10.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\MOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Front-and-Rear-Emergency-Braking\MOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1BE72-0F8F-459F-A104-A520ECF0A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7215"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
-    <t>Project Name : Front and Rear Emergancy Breaking System</t>
-  </si>
-  <si>
     <t>Sr. No.</t>
   </si>
   <si>
@@ -90,12 +88,15 @@
   </si>
   <si>
     <t>Date 04/10/21</t>
+  </si>
+  <si>
+    <t>Project Name : Front and Rear Emergancy Braking System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,14 +210,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,21 +517,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -538,10 +539,10 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -550,25 +551,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -576,17 +577,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -595,20 +596,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -616,19 +617,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -637,19 +638,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -658,17 +659,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -677,22 +678,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K15" s="12"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
